--- a/src/Отчеты/report_Bill.xlsx
+++ b/src/Отчеты/report_Bill.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="2620" windowWidth="16380" windowHeight="8200"/>
+    <workbookView xWindow="4365" yWindow="2625" windowWidth="16380" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,16 +17,11 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>${Flats.len}</t>
   </si>
@@ -45,13 +45,363 @@
   </si>
   <si>
     <t>${Group.grp_fname}</t>
+  </si>
+  <si>
+    <t>СЧЕТ-ИЗВЕЩЕНИЕ</t>
+  </si>
+  <si>
+    <t>д.144</t>
+  </si>
+  <si>
+    <t>кв. 16</t>
+  </si>
+  <si>
+    <t>“+B % 0  8TIM”</t>
+  </si>
+  <si>
+    <t>Л/с 50016</t>
+  </si>
+  <si>
+    <t>Начислено за июль 2013 г. :</t>
+  </si>
+  <si>
+    <t>Долг, переплата(-) на 31 июля 2013 г. :</t>
+  </si>
+  <si>
+    <t>Пени</t>
+  </si>
+  <si>
+    <t>К оплате всего :</t>
+  </si>
+  <si>
+    <t>Кассир</t>
+  </si>
+  <si>
+    <t>Плательщик</t>
+  </si>
+  <si>
+    <r>
+      <t>Текущие показания:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Горячая вода  ______
+Холодная вода______</t>
+    </r>
+  </si>
+  <si>
+    <t>СЧЕТ-КВИТАНЦИЯ</t>
+  </si>
+  <si>
+    <t>за тех. обслуживание и коммунальные услуги</t>
+  </si>
+  <si>
+    <t>ТСЖ "Доверие"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плательщик </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Площадь (кв. м): </t>
+  </si>
+  <si>
+    <t>жилая-31,5</t>
+  </si>
+  <si>
+    <t>лоджии-8,98</t>
+  </si>
+  <si>
+    <t>общая-61,7</t>
+  </si>
+  <si>
+    <t>отапливаемая-61,7</t>
+  </si>
+  <si>
+    <t>дополнительная-</t>
+  </si>
+  <si>
+    <t>Вид платежа</t>
+  </si>
+  <si>
+    <t>Тариф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумма </t>
+  </si>
+  <si>
+    <t>Ремонт крыши</t>
+  </si>
+  <si>
+    <t>Перерасчет</t>
+  </si>
+  <si>
+    <t>Начислено</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.</t>
+  </si>
+  <si>
+    <r>
+      <t>Услуги по содержанию общего
+имущества, м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.</t>
+  </si>
+  <si>
+    <r>
+      <t>Дополнит. площадь, лоджии, м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.</t>
+  </si>
+  <si>
+    <r>
+      <t>ВДГО(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>плита</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>), с квартиры</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ВДГО(газопровод</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>), м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.</t>
+  </si>
+  <si>
+    <r>
+      <t>Отопление, в т.ч. МОП, м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Отопление лоджий и т.п., м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.</t>
+  </si>
+  <si>
+    <t>Отопление(циркуляция ГВС),
+с квартиры</t>
+  </si>
+  <si>
+    <r>
+      <t>Горячая вода, м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.</t>
+  </si>
+  <si>
+    <r>
+      <t>Сток ГВС, м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.</t>
+  </si>
+  <si>
+    <r>
+      <t>Холодная вода, м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.</t>
+  </si>
+  <si>
+    <t>Вывоз отходов, м2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.</t>
+  </si>
+  <si>
+    <t>Домофон, с точки</t>
+  </si>
+  <si>
+    <t>Итого:</t>
+  </si>
+  <si>
+    <t>Показания счетчиков</t>
+  </si>
+  <si>
+    <t>Горячая вода</t>
+  </si>
+  <si>
+    <t>Холодная вода</t>
+  </si>
+  <si>
+    <t>Текущее:</t>
+  </si>
+  <si>
+    <t>Предыдущее:</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>Расход:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      Оплату произвести до 31 числа текущего месяца.
+Тел.(Факс) офиса: 56-32-64. В случае аварии звонить по тел.:  8-910-989-59-84 (Пырх Л.И.).                                </t>
+  </si>
+  <si>
+    <t>кв. ${lc.lc_flatnumber}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">за тех. обслуживание и коммунальные услуги
+${Group.grp_fname}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Р/с ${Group.bank_account}
+в ${Group.bank_name}
+БИК ${Group.bank_bik}        К/с ${Group.bank_correction}</t>
+    </r>
+  </si>
+  <si>
+    <t>${Group.grp_address}</t>
+  </si>
+  <si>
+    <t>Адрес: ${Group.grp_address}, ${Group.grp_name},  кв.${lc.lc_flatnumber}</t>
+  </si>
+  <si>
+    <t>Проживает   ${lc.registered_count} чел.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#0.00_ ;\-#0.00_ ;#"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -62,6 +412,8 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
@@ -79,6 +431,69 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <name val="Code 128"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -94,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -117,8 +532,260 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -126,25 +793,221 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="7" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="7" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="justify" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Обычный 2" xfId="7"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -470,18 +1333,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -490,21 +1353,49 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:17" ht="66.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="J2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="B3" s="4"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="40"/>
+      <c r="N3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="72"/>
+    </row>
+    <row r="4" spans="1:17" ht="34.5">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -515,8 +1406,20 @@
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="40"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="44"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
@@ -525,16 +1428,40 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="12">
+        <v>2444.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,8 +1469,20 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="12">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,22 +1492,668 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="12">
+        <v>2452.4100000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="41.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
+      <c r="J9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="74"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="40"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="72"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="12">
+        <v>2444.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="12">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="12">
+        <v>2452.4100000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="10:17" ht="22.5">
+      <c r="J20" s="17"/>
+      <c r="K20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17" ht="61.5">
+      <c r="J21" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="21">
+        <v>15.33</v>
+      </c>
+      <c r="M21" s="22">
+        <v>945.86</v>
+      </c>
+      <c r="N21" s="23">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="O21" s="64">
+        <v>0</v>
+      </c>
+      <c r="P21" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>1016.54</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17" ht="37.5">
+      <c r="J22" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="21">
+        <v>15.33</v>
+      </c>
+      <c r="M22" s="22">
+        <v>137.66</v>
+      </c>
+      <c r="N22" s="23">
+        <v>0</v>
+      </c>
+      <c r="O22" s="23">
+        <v>0</v>
+      </c>
+      <c r="P22" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>137.66</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17" ht="23.25">
+      <c r="J23" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="21">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M23" s="22">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N23" s="23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="23">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17" ht="24">
+      <c r="J24" s="79"/>
+      <c r="K24" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="66">
+        <v>0.1981</v>
+      </c>
+      <c r="M24" s="22">
+        <v>12.22</v>
+      </c>
+      <c r="N24" s="23">
+        <v>0</v>
+      </c>
+      <c r="O24" s="23">
+        <v>0</v>
+      </c>
+      <c r="P24" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="23">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17" ht="37.5">
+      <c r="J25" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
+        <v>0</v>
+      </c>
+      <c r="N25" s="23">
+        <v>0</v>
+      </c>
+      <c r="O25" s="23">
+        <v>0</v>
+      </c>
+      <c r="P25" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="80"/>
+      <c r="K26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0</v>
+      </c>
+      <c r="M26" s="22">
+        <v>0</v>
+      </c>
+      <c r="N26" s="23">
+        <v>0</v>
+      </c>
+      <c r="O26" s="23">
+        <v>0</v>
+      </c>
+      <c r="P26" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17" ht="48.75">
+      <c r="J27" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22">
+        <v>0</v>
+      </c>
+      <c r="N27" s="23">
+        <v>0</v>
+      </c>
+      <c r="O27" s="23">
+        <v>0</v>
+      </c>
+      <c r="P27" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17" ht="26.25">
+      <c r="J28" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="21">
+        <v>149.36000000000001</v>
+      </c>
+      <c r="M28" s="67">
+        <v>896.16</v>
+      </c>
+      <c r="N28" s="23">
+        <v>0</v>
+      </c>
+      <c r="O28" s="64">
+        <v>0</v>
+      </c>
+      <c r="P28" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="23">
+        <v>896.16</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="21">
+        <v>10.6</v>
+      </c>
+      <c r="M29" s="22">
+        <v>63.6</v>
+      </c>
+      <c r="N29" s="23">
+        <v>0</v>
+      </c>
+      <c r="O29" s="23">
+        <v>0</v>
+      </c>
+      <c r="P29" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="23">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17" ht="26.25">
+      <c r="J30" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="21">
+        <v>25.29</v>
+      </c>
+      <c r="M30" s="22">
+        <v>177.03</v>
+      </c>
+      <c r="N30" s="23">
+        <v>0</v>
+      </c>
+      <c r="O30" s="64">
+        <v>0</v>
+      </c>
+      <c r="P30" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="23">
+        <v>177.03</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17" ht="24.75">
+      <c r="J31" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="21">
+        <v>1.32</v>
+      </c>
+      <c r="M31" s="22">
+        <v>93.3</v>
+      </c>
+      <c r="N31" s="23">
+        <v>0</v>
+      </c>
+      <c r="O31" s="23">
+        <v>0</v>
+      </c>
+      <c r="P31" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="54"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+    </row>
+    <row r="33" spans="10:17" ht="24.75">
+      <c r="J33" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="21">
+        <v>30</v>
+      </c>
+      <c r="M33" s="36">
+        <v>30</v>
+      </c>
+      <c r="N33" s="37">
+        <v>0</v>
+      </c>
+      <c r="O33" s="37">
+        <v>0</v>
+      </c>
+      <c r="P33" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="26"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="30"/>
+      <c r="K35" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="33">
+        <v>0</v>
+      </c>
+      <c r="M35" s="63">
+        <v>2373.4300000000003</v>
+      </c>
+      <c r="N35" s="32">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="O35" s="65">
+        <v>0</v>
+      </c>
+      <c r="P35" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="32">
+        <v>2444.11</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="6"/>
+      <c r="K36" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="5"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="O37" s="78"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="5"/>
+      <c r="K38" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="47">
+        <v>140</v>
+      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="47">
+        <v>365</v>
+      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="5"/>
+      <c r="K39" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="47">
+        <v>134</v>
+      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="47">
+        <v>358</v>
+      </c>
+      <c r="O39" s="7"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="5"/>
+      <c r="K40" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="L40" s="48">
+        <v>6</v>
+      </c>
+      <c r="M40" s="7"/>
+      <c r="N40" s="48">
+        <v>7</v>
+      </c>
+      <c r="O40" s="7"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="76"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -578,7 +2163,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -595,7 +2180,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/src/Отчеты/report_Bill.xlsx
+++ b/src/Отчеты/report_Bill.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$Q$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$Q$30</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>СЧЕТ-ИЗВЕЩЕНИЕ</t>
-  </si>
-  <si>
-    <t>“+B % 0  8TIM”</t>
   </si>
   <si>
     <t>Начислено за июль 2013 г. :</t>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>&lt;jx:forEach items="${lc.counter}" var ="cout"&gt;</t>
+  </si>
+  <si>
+    <t>${lc.lc_flatnumber}Б</t>
   </si>
 </sst>
 </file>
@@ -320,21 +320,15 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -396,110 +390,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -592,6 +489,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -603,7 +535,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -639,24 +571,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -698,21 +621,15 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -722,13 +639,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -738,30 +651,41 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="7" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -781,22 +705,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="justify" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1145,20 +1070,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1167,286 +1096,399 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="66.75" customHeight="1">
+    <row r="2" spans="1:21" ht="66.75" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="39" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="71" t="s">
+      <c r="L2" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="S2" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="64" t="e">
+        <f>"1134"&amp;TEXT(S4,"00000000")&amp;TEXT(Q8*100,"0000000000")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U2" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="B3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="36" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="70" t="s">
+      <c r="O3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="70"/>
-    </row>
-    <row r="4" spans="1:17" ht="34.5">
+      <c r="Q3" s="66"/>
+    </row>
+    <row r="4" spans="1:21" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="37"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="45">
+        <f>T4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="30"/>
+      <c r="S4" t="str">
+        <f>5&amp;TEXT(S2,"0000")</f>
+        <v>5${lc.lc_flatnumber}Б</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="47"/>
       <c r="E7" s="1"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="G8" s="58"/>
+      <c r="G8" s="47"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="41.25" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="41.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="J9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="11" t="s">
+      <c r="N9" s="12"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="73" t="s">
+      <c r="Q9" s="70"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="74"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="B10" s="7"/>
+      <c r="C10" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
       <c r="J10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="75" t="s">
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P11" s="70" t="s">
+      <c r="G11" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" s="70"/>
-    </row>
-    <row r="12" spans="1:17" ht="14.25" customHeight="1">
+      <c r="H11" s="66"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="66"/>
+    </row>
+    <row r="12" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="30.75" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="L13" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="J18" s="13" t="s">
+      <c r="A18" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="J18" s="57" t="s">
+        <v>9</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
@@ -1454,249 +1496,368 @@
       <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="J19" s="15"/>
       <c r="K19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="67"/>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="30" t="s">
+      <c r="N19" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="52" t="s">
+      <c r="P19" s="54"/>
+      <c r="Q19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="18" t="s">
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="62"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="56"/>
+      <c r="J20" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="56"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1">
+      <c r="A21" s="48"/>
+      <c r="B21" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="48"/>
+      <c r="K21" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="63"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="56"/>
+      <c r="J22" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="56"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="61"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="65"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="60"/>
-      <c r="K21" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="O21" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q21" s="65" t="s">
+      <c r="C23" s="22">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43">
+        <v>2373.4300000000003</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="44">
+        <v>0</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="22">
+        <v>0</v>
+      </c>
+      <c r="M23" s="43">
+        <v>2373.4300000000003</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="44">
+        <v>0</v>
+      </c>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="4"/>
+      <c r="B24" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="B27" s="55" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" t="s">
+      <c r="C27" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="61"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="65"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="47"/>
-      <c r="K23" s="51"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="21"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="22"/>
-      <c r="K24" s="23"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="26"/>
-      <c r="K25" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="29">
+      <c r="G28" s="37"/>
+      <c r="H28" s="3"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="J29" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
         <v>0</v>
       </c>
-      <c r="N25" s="53">
-        <v>2373.4300000000003</v>
-      </c>
-      <c r="O25" s="28"/>
-      <c r="P25" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="28">
-        <v>2444.11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="4"/>
-      <c r="K26" s="77" t="s">
+    </row>
+    <row r="31" spans="1:17">
+      <c r="K31" s="5"/>
+      <c r="L31" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="L27" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="K29" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="M29" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="32" t="s">
+      <c r="M31" s="65"/>
+      <c r="N31" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="65"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="K32" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="33">
+        <v>140</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="33">
+        <v>365</v>
+      </c>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="11:15">
+      <c r="K33" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="33">
+        <v>134</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="33">
+        <v>358</v>
+      </c>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="11:15">
+      <c r="K34" s="24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="11:15">
-      <c r="K33" s="5"/>
-      <c r="L33" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" s="69"/>
-    </row>
-    <row r="34" spans="11:15">
-      <c r="K34" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="40">
-        <v>140</v>
+      <c r="L34" s="34">
+        <v>6</v>
       </c>
       <c r="M34" s="5"/>
-      <c r="N34" s="40">
-        <v>365</v>
+      <c r="N34" s="34">
+        <v>7</v>
       </c>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="11:15">
-      <c r="K35" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35" s="40">
-        <v>134</v>
-      </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="40">
-        <v>358</v>
-      </c>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="11:15">
-      <c r="K36" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" s="41">
-        <v>6</v>
-      </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="41">
-        <v>7</v>
-      </c>
-      <c r="O36" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
+  <mergeCells count="15">
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="K24:P24"/>
     <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="K21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/src/Отчеты/report_Bill.xlsx
+++ b/src/Отчеты/report_Bill.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr codeName="ЭтаКнига" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="2625" windowWidth="16380" windowHeight="8205"/>
+    <workbookView xWindow="4360" yWindow="2620" windowWidth="16380" windowHeight="8200"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$Q$30</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -228,7 +228,7 @@
     <t>&lt;jx:forEach items="${lc.counter}" var ="cout"&gt;</t>
   </si>
   <si>
-    <t>${lc.lc_flatnumber}Б</t>
+    <t>${lc.lc_flatnumber}</t>
   </si>
 </sst>
 </file>
@@ -239,7 +239,7 @@
     <numFmt numFmtId="164" formatCode="#0.00_ ;\-#0.00_ ;#"/>
     <numFmt numFmtId="165" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -356,78 +356,78 @@
       <right/>
       <top/>
       <bottom style="dashDot">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,14 +435,14 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -453,7 +453,7 @@
       <left/>
       <right/>
       <top style="dashDot">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -461,7 +461,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -469,10 +469,10 @@
     </border>
     <border>
       <left style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -491,36 +491,36 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,6 +686,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -718,10 +722,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -730,9 +730,9 @@
     <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="7"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1069,22 +1069,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1"/>
+  <sheetPr codeName="Лист1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -1105,14 +1105,14 @@
         <v>4</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
       <c r="S2" s="64" t="s">
         <v>57</v>
       </c>
@@ -1140,10 +1140,10 @@
       <c r="O3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="66" t="s">
+      <c r="P3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="66"/>
+      <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:21" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
@@ -1152,9 +1152,9 @@
       <c r="F4" s="2"/>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
-      <c r="L4" s="45">
-        <f>T4</f>
-        <v>0</v>
+      <c r="L4" s="45" t="e">
+        <f ca="1">code128(T2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M4" s="26"/>
       <c r="N4" s="29"/>
@@ -1165,7 +1165,7 @@
       <c r="Q4" s="30"/>
       <c r="S4" t="str">
         <f>5&amp;TEXT(S2,"0000")</f>
-        <v>5${lc.lc_flatnumber}Б</v>
+        <v>5${lc.lc_flatnumber}</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1256,36 +1256,36 @@
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="41"/>
-      <c r="P9" s="69" t="s">
+      <c r="P9" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="70"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="Q9" s="72"/>
+    </row>
+    <row r="10" spans="1:21" ht="15">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
       <c r="J10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="71" t="s">
+      <c r="L10" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="26"/>
@@ -1298,10 +1298,10 @@
       <c r="F11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="68"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="27" t="s">
@@ -1312,10 +1312,10 @@
       <c r="O11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="66" t="s">
+      <c r="P11" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" s="66"/>
+      <c r="Q11" s="68"/>
     </row>
     <row r="12" spans="1:21" ht="14.25" customHeight="1">
       <c r="A12" s="7"/>
@@ -1346,24 +1346,24 @@
     <row r="13" spans="1:21" ht="30.75" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="74" t="s">
+      <c r="L13" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7"/>
@@ -1579,7 +1579,7 @@
         <v>48</v>
       </c>
       <c r="J21" s="48"/>
-      <c r="K21" s="76" t="s">
+      <c r="K21" s="66" t="s">
         <v>43</v>
       </c>
       <c r="L21" s="56" t="s">
@@ -1659,24 +1659,24 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="4"/>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="73" t="s">
+      <c r="K24" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
       <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="1:17">
@@ -1696,7 +1696,7 @@
       <c r="L25" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="75" t="s">
+      <c r="M25" s="65" t="s">
         <v>51</v>
       </c>
       <c r="N25" t="s">
@@ -1765,26 +1765,26 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="J29" s="72" t="s">
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="J29" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
@@ -1793,14 +1793,14 @@
     </row>
     <row r="31" spans="1:17">
       <c r="K31" s="5"/>
-      <c r="L31" s="65" t="s">
+      <c r="L31" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65" t="s">
+      <c r="M31" s="67"/>
+      <c r="N31" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="O31" s="65"/>
+      <c r="O31" s="67"/>
     </row>
     <row r="32" spans="1:17">
       <c r="K32" s="24" t="s">
@@ -1860,18 +1860,22 @@
     <mergeCell ref="L13:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2"/>
+  <sheetPr codeName="Лист2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -1884,12 +1888,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист3"/>
+  <sheetPr codeName="Лист3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/src/Отчеты/report_Bill.xlsx
+++ b/src/Отчеты/report_Bill.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="2620" windowWidth="16380" windowHeight="8200"/>
+    <workbookView xWindow="4365" yWindow="2625" windowWidth="16380" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,17 +19,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$Q$30</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>СЧЕТ-ИЗВЕЩЕНИЕ</t>
-  </si>
-  <si>
-    <t>Начислено за июль 2013 г. :</t>
-  </si>
-  <si>
-    <t>Долг, переплата(-) на 31 июля 2013 г. :</t>
   </si>
   <si>
     <t>Пени</t>
@@ -228,7 +222,19 @@
     <t>&lt;jx:forEach items="${lc.counter}" var ="cout"&gt;</t>
   </si>
   <si>
-    <t>${lc.lc_flatnumber}</t>
+    <t>${lc.lc_flatnumber}Б</t>
+  </si>
+  <si>
+    <t>Начислено за ${lc.date} г. :</t>
+  </si>
+  <si>
+    <t>Начислено за  ${lc.date}  г. :</t>
+  </si>
+  <si>
+    <t>Долг, переплата(-) на ${lc.day} г. :</t>
+  </si>
+  <si>
+    <t>${lc.barcode}</t>
   </si>
 </sst>
 </file>
@@ -239,7 +245,7 @@
     <numFmt numFmtId="164" formatCode="#0.00_ ;\-#0.00_ ;#"/>
     <numFmt numFmtId="165" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -356,78 +362,78 @@
       <right/>
       <top/>
       <bottom style="dashDot">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="double">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="double">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,14 +441,14 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -453,7 +459,7 @@
       <left/>
       <right/>
       <top style="dashDot">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -461,7 +467,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -469,10 +475,10 @@
     </border>
     <border>
       <left style="double">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -491,36 +497,36 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,9 +736,9 @@
     <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="7"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1069,22 +1075,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" customWidth="1"/>
-    <col min="11" max="11" width="25.5" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -1106,7 +1112,7 @@
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
@@ -1114,7 +1120,7 @@
       <c r="P2" s="70"/>
       <c r="Q2" s="70"/>
       <c r="S2" s="64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T2" s="64" t="e">
         <f>"1134"&amp;TEXT(S4,"00000000")&amp;TEXT(Q8*100,"0000000000")</f>
@@ -1131,14 +1137,14 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M3" s="26"/>
       <c r="N3" s="29" t="s">
         <v>3</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P3" s="68" t="s">
         <v>1</v>
@@ -1152,20 +1158,19 @@
       <c r="F4" s="2"/>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
-      <c r="L4" s="45" t="e">
-        <f ca="1">code128(T2)</f>
-        <v>#NAME?</v>
+      <c r="L4" s="45" t="s">
+        <v>59</v>
       </c>
       <c r="M4" s="26"/>
       <c r="N4" s="29"/>
       <c r="O4" s="32"/>
       <c r="P4" s="46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="30"/>
       <c r="S4" t="str">
         <f>5&amp;TEXT(S2,"0000")</f>
-        <v>5${lc.lc_flatnumber}</v>
+        <v>5${lc.lc_flatnumber}Б</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1176,14 +1181,14 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1193,14 +1198,14 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1210,14 +1215,14 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1230,14 +1235,14 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="41.25" customHeight="1">
@@ -1247,27 +1252,27 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="J9" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="40"/>
       <c r="M9" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="41"/>
       <c r="P9" s="71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q9" s="72"/>
     </row>
-    <row r="10" spans="1:21" ht="15">
+    <row r="10" spans="1:21">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
@@ -1275,11 +1280,11 @@
       <c r="G10" s="73"/>
       <c r="H10" s="73"/>
       <c r="J10" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" s="73"/>
       <c r="N10" s="73"/>
@@ -1291,12 +1296,12 @@
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="31"/>
       <c r="F11" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="68" t="s">
         <v>1</v>
@@ -1305,12 +1310,12 @@
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M11" s="26"/>
       <c r="N11" s="31"/>
       <c r="O11" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P11" s="68" t="s">
         <v>1</v>
@@ -1321,33 +1326,33 @@
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="30.75" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="76"/>
@@ -1357,7 +1362,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
@@ -1369,126 +1374,126 @@
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="J18" s="57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
@@ -1498,43 +1503,43 @@
     <row r="19" spans="1:17">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="E19" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="42" t="s">
         <v>16</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>18</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="N19" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="42" t="s">
         <v>16</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="42" t="s">
-        <v>18</v>
       </c>
       <c r="P19" s="54"/>
       <c r="Q19" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1547,7 +1552,7 @@
       <c r="G20" s="60"/>
       <c r="H20" s="56"/>
       <c r="J20" s="62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K20" s="49"/>
       <c r="L20" s="50"/>
@@ -1560,43 +1565,43 @@
     <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="E21" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="F21" s="59" t="s">
         <v>45</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>47</v>
       </c>
       <c r="G21" s="58"/>
       <c r="H21" s="56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J21" s="48"/>
       <c r="K21" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="56" t="s">
+      <c r="N21" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="51" t="s">
+      <c r="O21" s="59" t="s">
         <v>45</v>
-      </c>
-      <c r="N21" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="O21" s="59" t="s">
-        <v>47</v>
       </c>
       <c r="P21" s="58"/>
       <c r="Q21" s="56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1622,7 +1627,7 @@
     <row r="23" spans="1:17">
       <c r="A23" s="19"/>
       <c r="B23" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="22">
         <v>0</v>
@@ -1636,11 +1641,11 @@
       </c>
       <c r="G23" s="54"/>
       <c r="H23" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L23" s="22">
         <v>0</v>
@@ -1654,13 +1659,13 @@
       </c>
       <c r="P23" s="54"/>
       <c r="Q23" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="4"/>
       <c r="B24" s="75" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="75"/>
@@ -1670,7 +1675,7 @@
       <c r="H24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="75" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L24" s="75"/>
       <c r="M24" s="75"/>
@@ -1681,26 +1686,26 @@
     </row>
     <row r="25" spans="1:17">
       <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
         <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
       </c>
       <c r="G25" s="36"/>
       <c r="H25" s="25" t="s">
         <v>3</v>
       </c>
       <c r="L25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" t="s">
         <v>50</v>
-      </c>
-      <c r="M25" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" t="s">
-        <v>52</v>
       </c>
       <c r="P25" s="36"/>
       <c r="Q25" s="25" t="s">
@@ -1709,50 +1714,50 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G26" s="35"/>
       <c r="H26" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J26" s="3"/>
       <c r="P26" s="35"/>
       <c r="Q26" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="B27" s="55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="55" t="s">
-        <v>55</v>
-      </c>
       <c r="E27" s="55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K27" s="55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L27" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="M27" s="55" t="s">
-        <v>55</v>
-      </c>
       <c r="N27" s="55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P27" s="37"/>
       <c r="Q27" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1766,7 +1771,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="74" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="74"/>
       <c r="C29" s="74"/>
@@ -1776,7 +1781,7 @@
       <c r="G29" s="74"/>
       <c r="H29" s="74"/>
       <c r="J29" s="74" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K29" s="74"/>
       <c r="L29" s="74"/>
@@ -1794,17 +1799,17 @@
     <row r="31" spans="1:17">
       <c r="K31" s="5"/>
       <c r="L31" s="67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M31" s="67"/>
       <c r="N31" s="67" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O31" s="67"/>
     </row>
     <row r="32" spans="1:17">
       <c r="K32" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L32" s="33">
         <v>140</v>
@@ -1817,7 +1822,7 @@
     </row>
     <row r="33" spans="11:15">
       <c r="K33" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L33" s="33">
         <v>134</v>
@@ -1830,7 +1835,7 @@
     </row>
     <row r="34" spans="11:15">
       <c r="K34" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L34" s="34">
         <v>6</v>
@@ -1860,22 +1865,18 @@
     <mergeCell ref="L13:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -1888,12 +1889,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист3" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/src/Отчеты/report_Bill.xlsx
+++ b/src/Отчеты/report_Bill.xlsx
@@ -16,15 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$Q$30</definedName>
-  </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
@@ -100,22 +97,7 @@
     <t>Показания счетчиков</t>
   </si>
   <si>
-    <t>Горячая вода</t>
-  </si>
-  <si>
-    <t>Холодная вода</t>
-  </si>
-  <si>
-    <t>Текущее:</t>
-  </si>
-  <si>
-    <t>Предыдущее:</t>
-  </si>
-  <si>
     <t>VII</t>
-  </si>
-  <si>
-    <t>Расход:</t>
   </si>
   <si>
     <t xml:space="preserve">                                      Оплату произвести до 31 числа текущего месяца.
@@ -222,9 +204,6 @@
     <t>&lt;jx:forEach items="${lc.counter}" var ="cout"&gt;</t>
   </si>
   <si>
-    <t>${lc.lc_flatnumber}Б</t>
-  </si>
-  <si>
     <t>Начислено за ${lc.date} г. :</t>
   </si>
   <si>
@@ -235,6 +214,12 @@
   </si>
   <si>
     <t>${lc.barcode}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>${sum1.count}</t>
   </si>
 </sst>
 </file>
@@ -334,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -367,91 +352,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -465,68 +370,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,7 +406,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -549,9 +414,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyProtection="1"/>
@@ -567,31 +429,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="7" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -618,21 +459,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -648,7 +477,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -657,77 +485,87 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="justify" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="justify" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1075,15 +913,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:U34"/>
+  <sheetPr codeName="Лист1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1091,9 +932,10 @@
     <col min="11" max="11" width="25.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
     <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="0.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1101,771 +943,874 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="66.75" customHeight="1">
+      <c r="R1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="66.75" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="S2" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="64" t="e">
-        <f>"1134"&amp;TEXT(S4,"00000000")&amp;TEXT(Q8*100,"0000000000")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U2" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="K2" s="6"/>
+      <c r="L2" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="B3" s="2"/>
       <c r="E3" s="1"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="29" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="68" t="s">
+      <c r="O3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="68"/>
-    </row>
-    <row r="4" spans="1:21" ht="19.5" customHeight="1">
+      <c r="Q3" s="51"/>
+      <c r="R3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="30"/>
-      <c r="S4" t="str">
-        <f>5&amp;TEXT(S2,"0000")</f>
-        <v>5${lc.lc_flatnumber}Б</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="21"/>
+      <c r="R4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1"/>
-      <c r="C7" s="47"/>
+      <c r="C7" s="33"/>
       <c r="E7" s="1"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="G8" s="47"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7" t="s">
+      <c r="G8" s="33"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="41.25" customHeight="1">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="41.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="11" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="71" t="s">
+      <c r="N9" s="11"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="72"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="6" t="s">
+      <c r="Q9" s="55"/>
+      <c r="R9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="J10" s="6" t="s">
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="J10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="73" t="s">
+      <c r="K10" s="6"/>
+      <c r="L10" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27" t="s">
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="51"/>
+      <c r="R11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30.75" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="68"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27" t="s">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="68"/>
-    </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9" t="s">
+      <c r="R15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="J18" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="43"/>
+      <c r="B19" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="K19" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="58"/>
+      <c r="M19" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="30.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="10" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15" customHeight="1">
+      <c r="A21" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="10" t="s">
+      <c r="C21" s="64"/>
+      <c r="D21" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="62" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="10" t="s">
+      <c r="L21" s="62"/>
+      <c r="M21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="10" t="s">
+      <c r="N21" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="10" t="s">
+      <c r="O21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="J18" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="42" t="s">
+      <c r="P21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="44"/>
+      <c r="B23" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="30">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="42" t="s">
+      <c r="J23" s="44"/>
+      <c r="K23" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="15"/>
+      <c r="P23" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O19" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="62"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="56"/>
-      <c r="J20" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="56"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="N21" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="O21" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="63"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="56"/>
-      <c r="J22" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="56"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="22">
-        <v>0</v>
-      </c>
-      <c r="D23" s="43">
-        <v>2373.4300000000003</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="44">
-        <v>0</v>
-      </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="22">
-        <v>0</v>
-      </c>
-      <c r="M23" s="43">
-        <v>2373.4300000000003</v>
-      </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="44">
-        <v>0</v>
-      </c>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="4"/>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
       <c r="H24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="75" t="s">
+      <c r="K24" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
       <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" t="s">
+      <c r="R24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="34"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="E27" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="M25" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="N25" t="s">
-        <v>50</v>
-      </c>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="B27" s="55" t="s">
+      <c r="N27" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="N27" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="O27" s="34"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="37"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="3"/>
-      <c r="P28" s="37"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="24"/>
       <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="J29" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" t="s">
+      <c r="R28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="J29" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
-      <c r="K31" s="5"/>
-      <c r="L31" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="O31" s="67"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="K32" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="33">
-        <v>140</v>
-      </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="33">
-        <v>365</v>
-      </c>
-      <c r="O32" s="5"/>
+    <row r="32" spans="1:18">
+      <c r="K32" s="39"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
     </row>
     <row r="33" spans="11:15">
-      <c r="K33" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="33">
-        <v>134</v>
-      </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="33">
-        <v>358</v>
-      </c>
-      <c r="O33" s="5"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="39"/>
     </row>
     <row r="34" spans="11:15">
-      <c r="K34" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="34">
-        <v>6</v>
-      </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="34">
-        <v>7</v>
-      </c>
-      <c r="O34" s="5"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="39"/>
+    </row>
+    <row r="35" spans="11:15">
+      <c r="K35" s="40"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="C10:H10"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="B24:G24"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="L13:Q13"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="29" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 

--- a/src/Отчеты/report_Bill.xlsx
+++ b/src/Отчеты/report_Bill.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr codeName="ЭтаКнига" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="2625" windowWidth="16380" windowHeight="8205"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Показания счетчиков</t>
-  </si>
-  <si>
-    <t>VII</t>
   </si>
   <si>
     <t xml:space="preserve">                                      Оплату произвести до 31 числа текущего месяца.
@@ -165,9 +162,6 @@
     <t>${sum1.usl_name}</t>
   </si>
   <si>
-    <t>${sum1.usl_rate}</t>
-  </si>
-  <si>
     <t>${sum1.calc}</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>${sum1.full_calc}</t>
   </si>
   <si>
-    <t>${cout.usl_name}</t>
-  </si>
-  <si>
     <t>Текущее</t>
   </si>
   <si>
@@ -192,18 +183,6 @@
     <t>Расход</t>
   </si>
   <si>
-    <t>${cout.end_val}</t>
-  </si>
-  <si>
-    <t>${cout.cons_val}</t>
-  </si>
-  <si>
-    <t>${cout.beg_val}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${lc.counter}" var ="cout"&gt;</t>
-  </si>
-  <si>
     <t>Начислено за ${lc.date} г. :</t>
   </si>
   <si>
@@ -220,6 +199,27 @@
   </si>
   <si>
     <t>${sum1.count}</t>
+  </si>
+  <si>
+    <t>${sum1.rate}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${lc.counter}" var ="counter"&gt;</t>
+  </si>
+  <si>
+    <t>${counter.usl_name}</t>
+  </si>
+  <si>
+    <t>${counter.end_val}</t>
+  </si>
+  <si>
+    <t>${counter.beg_val}</t>
+  </si>
+  <si>
+    <t>${counter.cons_val}</t>
+  </si>
+  <si>
+    <t>${lc.saldo.calc}</t>
   </si>
 </sst>
 </file>
@@ -230,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="#0.00_ ;\-#0.00_ ;#"/>
     <numFmt numFmtId="165" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -310,6 +310,12 @@
       <name val="Code 128"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -347,7 +353,7 @@
       <right/>
       <top/>
       <bottom style="dashDot">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -355,7 +361,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -364,7 +370,7 @@
       <left/>
       <right/>
       <top style="dashDot">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -406,7 +412,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -522,35 +528,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="justify" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -559,7 +544,31 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -574,9 +583,9 @@
     <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="7"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -913,26 +922,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1">
+  <sheetPr codeName="Лист1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="0.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="8" width="9" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="17" width="8.83203125" customWidth="1"/>
+    <col min="18" max="18" width="0.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -944,7 +951,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="R1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="66.75" customHeight="1">
@@ -956,16 +963,16 @@
         <v>4</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="L2" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
+      <c r="L2" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -974,21 +981,21 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="17"/>
       <c r="N3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="51"/>
+      <c r="Q3" s="60"/>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1">
@@ -999,17 +1006,17 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="20"/>
       <c r="O4" s="23"/>
       <c r="P4" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="21"/>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1020,17 +1027,17 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1040,17 +1047,17 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1067,10 +1074,10 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1090,10 +1097,10 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="41.25" customHeight="1">
@@ -1112,186 +1119,186 @@
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="54" t="s">
+      <c r="P9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="55"/>
+      <c r="Q9" s="62"/>
       <c r="R9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
       <c r="J10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="56" t="s">
+      <c r="L10" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="22"/>
       <c r="F11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="51"/>
+      <c r="H11" s="60"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="22"/>
       <c r="O11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="51" t="s">
+      <c r="P11" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" s="51"/>
+      <c r="Q11" s="60"/>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.25" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30.75" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
+      <c r="C13" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
+      <c r="L13" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
       <c r="R13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="G14" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="57"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="P14" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="57"/>
       <c r="R14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="G15" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="57"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P15" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="57"/>
       <c r="R15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1303,10 +1310,10 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="G16" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="57"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6" t="s">
@@ -1315,12 +1322,12 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="P16" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="57"/>
       <c r="R16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1332,10 +1339,10 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="G17" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="57"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6" t="s">
@@ -1344,12 +1351,12 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="P17" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="57"/>
       <c r="R17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1378,15 +1385,15 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="43"/>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="47" t="s">
         <v>14</v>
       </c>
@@ -1394,7 +1401,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>16</v>
@@ -1403,10 +1410,10 @@
         <v>17</v>
       </c>
       <c r="J19" s="43"/>
-      <c r="K19" s="58" t="s">
+      <c r="K19" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="58"/>
+      <c r="L19" s="55"/>
       <c r="M19" s="47" t="s">
         <v>14</v>
       </c>
@@ -1414,7 +1421,7 @@
         <v>15</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P19" s="29" t="s">
         <v>16</v>
@@ -1423,12 +1430,12 @@
         <v>17</v>
       </c>
       <c r="R19" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
@@ -1447,56 +1454,56 @@
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
       <c r="R20" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1">
       <c r="A21" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="50" t="s">
+      <c r="F21" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="G21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="H21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="J21" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="56"/>
+      <c r="M21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="62"/>
-      <c r="M21" s="14" t="s">
+      <c r="O21" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="N21" s="47" t="s">
+      <c r="P21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="29" t="s">
+      <c r="Q21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="R21" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1520,7 +1527,7 @@
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
       <c r="R22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1531,14 +1538,14 @@
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
       <c r="E23" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="30">
         <v>0</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J23" s="44"/>
       <c r="K23" s="49" t="s">
@@ -1547,82 +1554,78 @@
       <c r="L23" s="49"/>
       <c r="M23" s="49"/>
       <c r="N23" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O23" s="15"/>
       <c r="P23" s="30">
         <v>0</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="R23" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="4"/>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="60" t="s">
+      <c r="K24" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
       <c r="Q24" s="4"/>
       <c r="R24" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="B25" s="34"/>
       <c r="C25" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="H25" s="16"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N25" s="34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O25" s="34"/>
       <c r="P25" s="36"/>
-      <c r="Q25" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q25" s="16"/>
       <c r="R25" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -1630,9 +1633,7 @@
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="24"/>
-      <c r="H26" s="25" t="s">
-        <v>22</v>
-      </c>
+      <c r="H26" s="25"/>
       <c r="J26" s="3"/>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -1640,50 +1641,44 @@
       <c r="N26" s="34"/>
       <c r="O26" s="34"/>
       <c r="P26" s="24"/>
-      <c r="Q26" s="25" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q26" s="25"/>
       <c r="R26" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="B27" s="38" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="H27" s="16"/>
       <c r="K27" s="38" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M27" s="38" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N27" s="38" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O27" s="34"/>
       <c r="P27" s="24"/>
-      <c r="Q27" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="Q27" s="16"/>
       <c r="R27" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -1705,32 +1700,32 @@
       <c r="P28" s="24"/>
       <c r="Q28" s="3"/>
       <c r="R28" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="J29" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
+      <c r="A29" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="J29" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
       <c r="R29" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -1758,10 +1753,10 @@
     </row>
     <row r="32" spans="1:18">
       <c r="K32" s="39"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
     </row>
     <row r="33" spans="11:15">
       <c r="K33" s="40"/>
@@ -1785,10 +1780,23 @@
       <c r="O35" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="27">
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="L10:Q10"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="C10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="J29:Q29"/>
@@ -1796,32 +1804,33 @@
     <mergeCell ref="L13:Q13"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="29" max="16383" man="1"/>
   </rowBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2"/>
+  <sheetPr codeName="Лист2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -1834,12 +1843,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист3"/>
+  <sheetPr codeName="Лист3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
